--- a/app/download_dir/system_files/обувь_по каждому размеру.xlsx
+++ b/app/download_dir/system_files/обувь_по каждому размеру.xlsx
@@ -3251,7 +3251,7 @@
     <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3460,12 +3460,6 @@
       <name val="Arial1"/>
       <family val="0"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3768,7 +3762,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3981,7 +3975,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3989,23 +3983,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4136,10 +4126,10 @@
   <dimension ref="A1:AC1035"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T1638" activeCellId="0" sqref="T1638"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -18986,7 +18976,7 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="U6:W6"/>
   </mergeCells>
-  <dataValidations count="17">
+  <dataValidations count="15">
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5 B34" type="textLength">
       <formula1>51</formula1>
       <formula2>0</formula2>
@@ -19023,18 +19013,6 @@
       <formula1>Справочники!$B$427:$B$432</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G7" type="list">
-      <formula1>Справочники!$B$130:$B$240</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G8" type="list">
-      <formula1>Справочники!$B$130:$B$240</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G9:G1034" type="list">
-      <formula1>Справочники!$B$130:$B$240</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F7:F8" type="list">
       <formula1>Справочники!$B$11:$B$127</formula1>
       <formula2>0</formula2>
@@ -19053,6 +19031,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T9:T1034" type="list">
       <formula1>Справочники!$B$435:$B$676</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G7:G1034" type="textLength">
+      <formula1>100</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -19077,7 +19059,7 @@
       <selection pane="topLeft" activeCell="B458" activeCellId="0" sqref="B458"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.46"/>
@@ -23765,7 +23747,7 @@
       <c r="A602" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B602" s="53" t="s">
+      <c r="B602" s="52" t="s">
         <v>66</v>
       </c>
     </row>
@@ -24366,7 +24348,7 @@
       <c r="A679" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B679" s="54" t="s">
+      <c r="B679" s="53" t="s">
         <v>715</v>
       </c>
     </row>
@@ -24374,7 +24356,7 @@
       <c r="A680" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B680" s="54" t="s">
+      <c r="B680" s="53" t="s">
         <v>67</v>
       </c>
     </row>
@@ -24382,7 +24364,7 @@
       <c r="A681" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B681" s="54" t="s">
+      <c r="B681" s="53" t="s">
         <v>716</v>
       </c>
     </row>
@@ -24414,24 +24396,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>717</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="57" t="n">
+      <c r="A2" s="56" t="n">
         <v>4203</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>719</v>
       </c>
     </row>
@@ -24452,10 +24434,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="57" t="n">
+      <c r="A5" s="56" t="n">
         <v>6106</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>722</v>
       </c>
     </row>
@@ -24463,7 +24445,7 @@
       <c r="A6" s="8" t="n">
         <v>6106100000</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>723</v>
       </c>
     </row>
@@ -24471,7 +24453,7 @@
       <c r="A7" s="8" t="n">
         <v>6106200000</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>724</v>
       </c>
     </row>
@@ -24508,10 +24490,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57" t="n">
+      <c r="A12" s="56" t="n">
         <v>6201</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="57" t="s">
         <v>729</v>
       </c>
     </row>
@@ -24548,10 +24530,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="57" t="n">
+      <c r="A17" s="56" t="n">
         <v>6202</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="57" t="s">
         <v>734</v>
       </c>
     </row>
@@ -24604,10 +24586,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="57" t="n">
+      <c r="A24" s="56" t="n">
         <v>6302</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="57" t="s">
         <v>741</v>
       </c>
     </row>
@@ -24812,10 +24794,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="57" t="n">
+      <c r="A50" s="56" t="n">
         <v>4303</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="57" t="s">
         <v>767</v>
       </c>
     </row>
@@ -24876,10 +24858,10 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="57" t="n">
+      <c r="A58" s="56" t="n">
         <v>3303</v>
       </c>
-      <c r="B58" s="60" t="s">
+      <c r="B58" s="59" t="s">
         <v>775</v>
       </c>
     </row>
@@ -24900,10 +24882,10 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="57" t="n">
+      <c r="A61" s="56" t="n">
         <v>4011</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="57" t="s">
         <v>778</v>
       </c>
     </row>
@@ -24972,10 +24954,10 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="57" t="n">
+      <c r="A70" s="56" t="n">
         <v>6401</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="57" t="s">
         <v>787</v>
       </c>
     </row>
@@ -25012,10 +24994,10 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="57" t="n">
+      <c r="A75" s="56" t="n">
         <v>6402</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="57" t="s">
         <v>792</v>
       </c>
     </row>
@@ -25140,10 +25122,10 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="57" t="n">
+      <c r="A91" s="56" t="n">
         <v>6403</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="57" t="s">
         <v>807</v>
       </c>
     </row>
@@ -25308,7 +25290,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="61" t="n">
+      <c r="A112" s="60" t="n">
         <v>6403910500</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -25316,7 +25298,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="61" t="n">
+      <c r="A113" s="60" t="n">
         <v>6403911100</v>
       </c>
       <c r="B113" s="7" t="s">
@@ -25468,10 +25450,10 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="57" t="n">
+      <c r="A132" s="56" t="n">
         <v>6404</v>
       </c>
-      <c r="B132" s="58" t="s">
+      <c r="B132" s="57" t="s">
         <v>848</v>
       </c>
     </row>
@@ -25516,10 +25498,10 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="57" t="n">
+      <c r="A138" s="56" t="n">
         <v>6405</v>
       </c>
-      <c r="B138" s="58" t="s">
+      <c r="B138" s="57" t="s">
         <v>854</v>
       </c>
     </row>

--- a/app/download_dir/system_files/обувь_по каждому размеру.xlsx
+++ b/app/download_dir/system_files/обувь_по каждому размеру.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="861">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -1524,7 +1524,7 @@
     <t xml:space="preserve">БЕЛИЗ</t>
   </si>
   <si>
-    <t xml:space="preserve">БЕЛОРУССИЯ</t>
+    <t xml:space="preserve">БЕЛАРУСЬ</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЛЬГИЯ</t>
@@ -1575,7 +1575,7 @@
     <t xml:space="preserve">ВАТИКАНСКОЕ ГОСУДАРСТВО (ПАПСКИЙ ПРЕСТОЛ)</t>
   </si>
   <si>
-    <t xml:space="preserve">ВЕЛИКОБРИТАНИЯ</t>
+    <t xml:space="preserve">СОЕДИНЕННОЕ КОРОЛЕВСТВО</t>
   </si>
   <si>
     <t xml:space="preserve">ВЕНГРИЯ</t>
@@ -1746,9 +1746,6 @@
     <t xml:space="preserve">КОМОРСКИЕ ОСТРОВА</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕВЕРНАЯ КОРЕЯ</t>
-  </si>
-  <si>
     <t xml:space="preserve">КОСТА-РИКА</t>
   </si>
   <si>
@@ -1887,7 +1884,7 @@
     <t xml:space="preserve">НОРВЕГИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ОАЭ</t>
+    <t xml:space="preserve">ОБЪЕДИНЕННЫЕ АРАБСКИЕ ЭМИРАТЫ</t>
   </si>
   <si>
     <t xml:space="preserve">ОМАН</t>
@@ -1944,7 +1941,7 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
   </si>
   <si>
-    <t xml:space="preserve">ЮЖНАЯ КОРЕЯ</t>
+    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
@@ -2013,7 +2010,7 @@
     <t xml:space="preserve">СЛОВЕНИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">США</t>
+    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
   </si>
   <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
@@ -3251,7 +3248,7 @@
     <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3460,13 +3457,6 @@
       <name val="Arial1"/>
       <family val="0"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3762,7 +3752,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3971,7 +3961,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3979,23 +3969,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4129,7 +4115,7 @@
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -18990,7 +18976,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U7:U1034" type="list">
-      <formula1>Справочники!$B$679:$B$681</formula1>
+      <formula1>Справочники!$B$678:$B$680</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H9:H1034" type="list">
@@ -19022,15 +19008,15 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7" type="list">
-      <formula1>Справочники!$B$435:$B$676</formula1>
+      <formula1>Справочники!$B$435:$B$675</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T8" type="list">
-      <formula1>Справочники!$B$435:$B$676</formula1>
+      <formula1>Справочники!$B$435:$B$675</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T9:T1034" type="list">
-      <formula1>Справочники!$B$435:$B$676</formula1>
+      <formula1>Справочники!$B$435:$B$675</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G7:G1034" type="textLength">
@@ -19053,13 +19039,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B681"/>
+  <dimension ref="A1:B680"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A427" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B458" activeCellId="0" sqref="B458"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A670" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A676" activeCellId="0" sqref="A676"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.46"/>
@@ -22595,7 +22581,7 @@
       <c r="A458" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B458" s="52" t="s">
+      <c r="B458" s="51" t="s">
         <v>498</v>
       </c>
     </row>
@@ -23740,15 +23726,15 @@
         <v>474</v>
       </c>
       <c r="B601" s="51" t="s">
-        <v>640</v>
+        <v>66</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B602" s="52" t="s">
-        <v>66</v>
+      <c r="B602" s="51" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24335,37 +24321,28 @@
         <v>713</v>
       </c>
     </row>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="B676" s="51" t="s">
+    <row r="678" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A678" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B678" s="52" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="678" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="679" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B679" s="53" t="s">
-        <v>715</v>
+      <c r="B679" s="52" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B680" s="53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="681" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B681" s="53" t="s">
-        <v>716</v>
+      <c r="B680" s="52" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -24396,25 +24373,25 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>717</v>
       </c>
-      <c r="B1" s="55" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="55" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B2" s="56" t="s">
         <v>718</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="56" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24422,7 +24399,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24430,31 +24407,31 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="55" t="n">
+        <v>6106</v>
+      </c>
+      <c r="B5" s="56" t="s">
         <v>721</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56" t="n">
-        <v>6106</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>6106100000</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>723</v>
+      <c r="B6" s="57" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>6106200000</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>724</v>
+      <c r="B7" s="57" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24462,7 +24439,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24470,7 +24447,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24478,7 +24455,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24486,15 +24463,15 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="55" t="n">
+        <v>6201</v>
+      </c>
+      <c r="B12" s="56" t="s">
         <v>728</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="56" t="n">
-        <v>6201</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24502,7 +24479,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24510,7 +24487,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24518,7 +24495,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24526,15 +24503,15 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="55" t="n">
+        <v>6202</v>
+      </c>
+      <c r="B17" s="56" t="s">
         <v>733</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="56" t="n">
-        <v>6202</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24542,7 +24519,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24550,7 +24527,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24558,7 +24535,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24566,7 +24543,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24574,7 +24551,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24582,15 +24559,15 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="55" t="n">
+        <v>6302</v>
+      </c>
+      <c r="B24" s="56" t="s">
         <v>740</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="56" t="n">
-        <v>6302</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24598,7 +24575,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24606,7 +24583,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24614,7 +24591,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24622,7 +24599,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24630,7 +24607,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24638,7 +24615,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24646,7 +24623,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24654,7 +24631,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24662,7 +24639,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24670,7 +24647,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24678,7 +24655,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24686,7 +24663,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24694,7 +24671,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24702,7 +24679,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24710,7 +24687,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24718,7 +24695,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24726,7 +24703,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24734,7 +24711,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24742,7 +24719,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24750,7 +24727,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24758,7 +24735,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24766,7 +24743,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24774,7 +24751,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24782,7 +24759,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24790,15 +24767,15 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="55" t="n">
+        <v>4303</v>
+      </c>
+      <c r="B50" s="56" t="s">
         <v>766</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="56" t="n">
-        <v>4303</v>
-      </c>
-      <c r="B50" s="57" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24806,7 +24783,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24814,7 +24791,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24822,7 +24799,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24830,7 +24807,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24838,7 +24815,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24846,7 +24823,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24854,15 +24831,15 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="55" t="n">
+        <v>3303</v>
+      </c>
+      <c r="B58" s="58" t="s">
         <v>774</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="56" t="n">
-        <v>3303</v>
-      </c>
-      <c r="B58" s="59" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24870,7 +24847,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24878,15 +24855,15 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="55" t="n">
+        <v>4011</v>
+      </c>
+      <c r="B61" s="56" t="s">
         <v>777</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="56" t="n">
-        <v>4011</v>
-      </c>
-      <c r="B61" s="57" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24894,7 +24871,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24902,7 +24879,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24910,7 +24887,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24918,7 +24895,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24926,7 +24903,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24934,7 +24911,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24942,7 +24919,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24950,15 +24927,15 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="55" t="n">
+        <v>6401</v>
+      </c>
+      <c r="B70" s="56" t="s">
         <v>786</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="56" t="n">
-        <v>6401</v>
-      </c>
-      <c r="B70" s="57" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24966,7 +24943,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24974,7 +24951,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24982,7 +24959,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24990,15 +24967,15 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="55" t="n">
+        <v>6402</v>
+      </c>
+      <c r="B75" s="56" t="s">
         <v>791</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="56" t="n">
-        <v>6402</v>
-      </c>
-      <c r="B75" s="57" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25006,7 +24983,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25014,7 +24991,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25022,7 +24999,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25030,7 +25007,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25038,7 +25015,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25046,7 +25023,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25054,7 +25031,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25062,7 +25039,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25070,7 +25047,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25078,7 +25055,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25086,7 +25063,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25094,7 +25071,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25102,7 +25079,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25110,7 +25087,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25118,15 +25095,15 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="55" t="n">
+        <v>6403</v>
+      </c>
+      <c r="B91" s="56" t="s">
         <v>806</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="56" t="n">
-        <v>6403</v>
-      </c>
-      <c r="B91" s="57" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25134,7 +25111,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25142,7 +25119,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25150,7 +25127,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25158,7 +25135,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25166,7 +25143,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25174,7 +25151,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25182,7 +25159,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25190,7 +25167,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25198,7 +25175,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25206,7 +25183,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25214,7 +25191,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25222,7 +25199,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25230,7 +25207,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25238,7 +25215,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25246,7 +25223,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25254,7 +25231,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25262,7 +25239,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25270,7 +25247,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25278,7 +25255,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25286,23 +25263,23 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="7" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="59" t="n">
+        <v>6403910500</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="60" t="n">
-        <v>6403910500</v>
-      </c>
-      <c r="B112" s="7" t="s">
+    <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="59" t="n">
+        <v>6403911100</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>828</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="60" t="n">
-        <v>6403911100</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25310,7 +25287,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25318,7 +25295,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25326,7 +25303,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25334,7 +25311,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25342,7 +25319,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25350,7 +25327,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25358,7 +25335,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25366,7 +25343,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25374,7 +25351,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25382,7 +25359,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25390,7 +25367,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25398,7 +25375,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25406,7 +25383,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25414,7 +25391,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25422,7 +25399,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25430,7 +25407,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25438,7 +25415,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25446,15 +25423,15 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="7" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="55" t="n">
+        <v>6404</v>
+      </c>
+      <c r="B132" s="56" t="s">
         <v>847</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="56" t="n">
-        <v>6404</v>
-      </c>
-      <c r="B132" s="57" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25462,7 +25439,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25470,7 +25447,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25478,7 +25455,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25486,7 +25463,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25494,15 +25471,15 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="55" t="n">
+        <v>6405</v>
+      </c>
+      <c r="B138" s="56" t="s">
         <v>853</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="56" t="n">
-        <v>6405</v>
-      </c>
-      <c r="B138" s="57" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25510,7 +25487,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25518,7 +25495,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25526,7 +25503,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25534,7 +25511,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25542,7 +25519,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25550,7 +25527,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25558,7 +25535,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/обувь_по каждому размеру.xlsx
+++ b/app/download_dir/system_files/обувь_по каждому размеру.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="852">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -1362,9 +1362,6 @@
     <t xml:space="preserve">Парусина</t>
   </si>
   <si>
-    <t xml:space="preserve">Джинс</t>
-  </si>
-  <si>
     <t xml:space="preserve">Войлок</t>
   </si>
   <si>
@@ -1381,9 +1378,6 @@
   </si>
   <si>
     <t xml:space="preserve">Хлопок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сетчатое полотно</t>
   </si>
   <si>
     <t xml:space="preserve">Искусственная замша</t>
@@ -3819,10 +3813,10 @@
   <dimension ref="A1:AC1035"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.04"/>
@@ -3838,7 +3832,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="11.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="7.39"/>
@@ -4285,7 +4279,7 @@
       <c r="A9" s="30"/>
       <c r="B9" s="31" t="str">
         <f aca="false">CONCATENATE(F9, " ", C9, " арт. ", E9, " цвет. ", G9, " р.", H9)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33" t="s">
@@ -4310,7 +4304,7 @@
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="str">
         <f aca="false">CONCATENATE(F10, " ", C10, " арт. ", E10, " цвет. ", G10, " р.", H10)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33" t="s">
@@ -4335,7 +4329,7 @@
       <c r="A11" s="30"/>
       <c r="B11" s="31" t="str">
         <f aca="false">CONCATENATE(F11, " ", C11, " арт. ", E11, " цвет. ", G11, " р.", H11)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="33" t="s">
@@ -4360,7 +4354,7 @@
       <c r="A12" s="30"/>
       <c r="B12" s="31" t="str">
         <f aca="false">CONCATENATE(F12, " ", C12, " арт. ", E12, " цвет. ", G12, " р.", H12)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33" t="s">
@@ -4385,7 +4379,7 @@
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="str">
         <f aca="false">CONCATENATE(F13, " ", C13, " арт. ", E13, " цвет. ", G13, " р.", H13)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33" t="s">
@@ -4410,7 +4404,7 @@
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="str">
         <f aca="false">CONCATENATE(F14, " ", C14, " арт. ", E14, " цвет. ", G14, " р.", H14)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33" t="s">
@@ -4435,7 +4429,7 @@
       <c r="A15" s="30"/>
       <c r="B15" s="31" t="str">
         <f aca="false">CONCATENATE(F15, " ", C15, " арт. ", E15, " цвет. ", G15, " р.", H15)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="33" t="s">
@@ -4460,7 +4454,7 @@
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="str">
         <f aca="false">CONCATENATE(F16, " ", C16, " арт. ", E16, " цвет. ", G16, " р.", H16)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="33" t="s">
@@ -4485,7 +4479,7 @@
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="str">
         <f aca="false">CONCATENATE(F17, " ", C17, " арт. ", E17, " цвет. ", G17, " р.", H17)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="33" t="s">
@@ -4510,7 +4504,7 @@
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="str">
         <f aca="false">CONCATENATE(F18, " ", C18, " арт. ", E18, " цвет. ", G18, " р.", H18)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="33" t="s">
@@ -4535,7 +4529,7 @@
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="str">
         <f aca="false">CONCATENATE(F19, " ", C19, " арт. ", E19, " цвет. ", G19, " р.", H19)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="33" t="s">
@@ -4560,7 +4554,7 @@
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="str">
         <f aca="false">CONCATENATE(F20, " ", C20, " арт. ", E20, " цвет. ", G20, " р.", H20)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="33" t="s">
@@ -4585,7 +4579,7 @@
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="str">
         <f aca="false">CONCATENATE(F21, " ", C21, " арт. ", E21, " цвет. ", G21, " р.", H21)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="33" t="s">
@@ -4610,7 +4604,7 @@
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="str">
         <f aca="false">CONCATENATE(F22, " ", C22, " арт. ", E22, " цвет. ", G22, " р.", H22)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="33" t="s">
@@ -4635,7 +4629,7 @@
       <c r="A23" s="30"/>
       <c r="B23" s="31" t="str">
         <f aca="false">CONCATENATE(F23, " ", C23, " арт. ", E23, " цвет. ", G23, " р.", H23)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="33" t="s">
@@ -4660,7 +4654,7 @@
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="str">
         <f aca="false">CONCATENATE(F24, " ", C24, " арт. ", E24, " цвет. ", G24, " р.", H24)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="33" t="s">
@@ -4685,7 +4679,7 @@
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="str">
         <f aca="false">CONCATENATE(F25, " ", C25, " арт. ", E25, " цвет. ", G25, " р.", H25)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="33" t="s">
@@ -4710,7 +4704,7 @@
       <c r="A26" s="30"/>
       <c r="B26" s="31" t="str">
         <f aca="false">CONCATENATE(F26, " ", C26, " арт. ", E26, " цвет. ", G26, " р.", H26)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="33" t="s">
@@ -4735,7 +4729,7 @@
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="str">
         <f aca="false">CONCATENATE(F27, " ", C27, " арт. ", E27, " цвет. ", G27, " р.", H27)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="33" t="s">
@@ -4760,7 +4754,7 @@
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="str">
         <f aca="false">CONCATENATE(F28, " ", C28, " арт. ", E28, " цвет. ", G28, " р.", H28)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="33" t="s">
@@ -4785,7 +4779,7 @@
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="str">
         <f aca="false">CONCATENATE(F29, " ", C29, " арт. ", E29, " цвет. ", G29, " р.", H29)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="33" t="s">
@@ -4810,7 +4804,7 @@
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="str">
         <f aca="false">CONCATENATE(F30, " ", C30, " арт. ", E30, " цвет. ", G30, " р.", H30)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="33" t="s">
@@ -4835,7 +4829,7 @@
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="str">
         <f aca="false">CONCATENATE(F31, " ", C31, " арт. ", E31, " цвет. ", G31, " р.", H31)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="33" t="s">
@@ -4860,7 +4854,7 @@
       <c r="A32" s="30"/>
       <c r="B32" s="31" t="str">
         <f aca="false">CONCATENATE(F32, " ", C32, " арт. ", E32, " цвет. ", G32, " р.", H32)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="33" t="s">
@@ -4885,7 +4879,7 @@
       <c r="A33" s="30"/>
       <c r="B33" s="24" t="str">
         <f aca="false">CONCATENATE(F33, " ", C33, " арт. ", E33, " цвет. ", G33, " р.", H33)</f>
-        <v>  арт.  цвет.  р.</v>
+        <v>арт.  цвет.  р.</v>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="33" t="s">
@@ -18673,19 +18667,19 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7" type="list">
-      <formula1>Справочники!$B$435:$B$675</formula1>
+      <formula1>Справочники!$B$433:$B$673</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I7:J1034" type="list">
-      <formula1>Справочники!$B$366:$B$406</formula1>
+      <formula1>Справочники!$B$366:$B$404</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U7:U1034" type="list">
-      <formula1>Справочники!$B$678:$B$680</formula1>
+      <formula1>Справочники!$B$676:$B$678</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T9:T1034" type="list">
-      <formula1>Справочники!$B$435:$B$675</formula1>
+      <formula1>Справочники!$B$433:$B$673</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F7:F8" type="list">
@@ -18709,7 +18703,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T8" type="list">
-      <formula1>Справочники!$B$435:$B$675</formula1>
+      <formula1>Справочники!$B$433:$B$673</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6" type="textLength">
@@ -18717,11 +18711,11 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K7:K1034" type="list">
-      <formula1>Справочники!$B$410:$B$424</formula1>
+      <formula1>Справочники!$B$408:$B$422</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O7:O1034" type="list">
-      <formula1>Справочники!$B$427:$B$432</formula1>
+      <formula1>Справочники!$B$425:$B$430</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5 B34" type="textLength">
@@ -18744,13 +18738,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B680"/>
+  <dimension ref="A1:B678"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A349" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B364" activeCellId="0" sqref="B364"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A382" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B402" activeCellId="0" sqref="B402"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.59"/>
@@ -21827,7 +21821,7 @@
       <c r="A394" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B394" s="1" t="s">
+      <c r="B394" s="49" t="s">
         <v>451</v>
       </c>
     </row>
@@ -21843,7 +21837,7 @@
       <c r="A396" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B396" s="49" t="s">
+      <c r="B396" s="1" t="s">
         <v>453</v>
       </c>
     </row>
@@ -21851,17 +21845,11 @@
       <c r="A397" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B397" s="1" t="s">
-        <v>454</v>
-      </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B398" s="1" t="s">
-        <v>455</v>
-      </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
@@ -21893,187 +21881,193 @@
         <v>425</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="1" t="s">
-        <v>425</v>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B411" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>73</v>
+        <v>432</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>429</v>
+        <v>63</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>63</v>
+        <v>433</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B422" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B424" s="1" t="s">
+      <c r="B425" s="1" t="s">
         <v>461</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>463</v>
+        <v>74</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B428" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>74</v>
+        <v>463</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B431" s="1" t="s">
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B432" s="1" t="s">
+      <c r="B433" s="50" t="s">
         <v>466</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B434" s="50" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B435" s="50" t="s">
         <v>468</v>
@@ -22081,7 +22075,7 @@
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B436" s="50" t="s">
         <v>469</v>
@@ -22089,7 +22083,7 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B437" s="50" t="s">
         <v>470</v>
@@ -22097,7 +22091,7 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B438" s="50" t="s">
         <v>471</v>
@@ -22105,7 +22099,7 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B439" s="50" t="s">
         <v>472</v>
@@ -22113,7 +22107,7 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B440" s="50" t="s">
         <v>473</v>
@@ -22121,7 +22115,7 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B441" s="50" t="s">
         <v>474</v>
@@ -22129,7 +22123,7 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B442" s="50" t="s">
         <v>475</v>
@@ -22137,7 +22131,7 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B443" s="50" t="s">
         <v>476</v>
@@ -22145,7 +22139,7 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B444" s="50" t="s">
         <v>477</v>
@@ -22153,7 +22147,7 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B445" s="50" t="s">
         <v>478</v>
@@ -22161,7 +22155,7 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B446" s="50" t="s">
         <v>479</v>
@@ -22169,7 +22163,7 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B447" s="50" t="s">
         <v>480</v>
@@ -22177,7 +22171,7 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B448" s="50" t="s">
         <v>481</v>
@@ -22185,7 +22179,7 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B449" s="50" t="s">
         <v>482</v>
@@ -22193,7 +22187,7 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B450" s="50" t="s">
         <v>483</v>
@@ -22201,7 +22195,7 @@
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B451" s="50" t="s">
         <v>484</v>
@@ -22209,7 +22203,7 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B452" s="50" t="s">
         <v>485</v>
@@ -22217,7 +22211,7 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B453" s="50" t="s">
         <v>486</v>
@@ -22225,7 +22219,7 @@
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B454" s="50" t="s">
         <v>487</v>
@@ -22233,7 +22227,7 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B455" s="50" t="s">
         <v>488</v>
@@ -22241,7 +22235,7 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B456" s="50" t="s">
         <v>489</v>
@@ -22249,7 +22243,7 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B457" s="50" t="s">
         <v>490</v>
@@ -22257,7 +22251,7 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B458" s="50" t="s">
         <v>491</v>
@@ -22265,7 +22259,7 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B459" s="50" t="s">
         <v>492</v>
@@ -22273,7 +22267,7 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B460" s="50" t="s">
         <v>493</v>
@@ -22281,7 +22275,7 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B461" s="50" t="s">
         <v>494</v>
@@ -22289,7 +22283,7 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B462" s="50" t="s">
         <v>495</v>
@@ -22297,7 +22291,7 @@
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B463" s="50" t="s">
         <v>496</v>
@@ -22305,7 +22299,7 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B464" s="50" t="s">
         <v>497</v>
@@ -22313,7 +22307,7 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B465" s="50" t="s">
         <v>498</v>
@@ -22321,7 +22315,7 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B466" s="50" t="s">
         <v>499</v>
@@ -22329,7 +22323,7 @@
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B467" s="50" t="s">
         <v>500</v>
@@ -22337,7 +22331,7 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B468" s="50" t="s">
         <v>501</v>
@@ -22345,7 +22339,7 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B469" s="50" t="s">
         <v>502</v>
@@ -22353,7 +22347,7 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B470" s="50" t="s">
         <v>503</v>
@@ -22361,7 +22355,7 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B471" s="50" t="s">
         <v>504</v>
@@ -22369,7 +22363,7 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B472" s="50" t="s">
         <v>505</v>
@@ -22377,7 +22371,7 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B473" s="50" t="s">
         <v>506</v>
@@ -22385,7 +22379,7 @@
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B474" s="50" t="s">
         <v>507</v>
@@ -22393,7 +22387,7 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B475" s="50" t="s">
         <v>508</v>
@@ -22401,7 +22395,7 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B476" s="50" t="s">
         <v>509</v>
@@ -22409,7 +22403,7 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B477" s="50" t="s">
         <v>510</v>
@@ -22417,31 +22411,31 @@
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B478" s="50" t="s">
-        <v>511</v>
+        <v>75</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B479" s="50" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B480" s="50" t="s">
-        <v>75</v>
+        <v>512</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B481" s="50" t="s">
         <v>513</v>
@@ -22449,7 +22443,7 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B482" s="50" t="s">
         <v>514</v>
@@ -22457,7 +22451,7 @@
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B483" s="50" t="s">
         <v>515</v>
@@ -22465,7 +22459,7 @@
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B484" s="50" t="s">
         <v>516</v>
@@ -22473,7 +22467,7 @@
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B485" s="50" t="s">
         <v>517</v>
@@ -22481,7 +22475,7 @@
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B486" s="50" t="s">
         <v>518</v>
@@ -22489,7 +22483,7 @@
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B487" s="50" t="s">
         <v>519</v>
@@ -22497,7 +22491,7 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B488" s="50" t="s">
         <v>520</v>
@@ -22505,7 +22499,7 @@
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B489" s="50" t="s">
         <v>521</v>
@@ -22513,7 +22507,7 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B490" s="50" t="s">
         <v>522</v>
@@ -22521,7 +22515,7 @@
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B491" s="50" t="s">
         <v>523</v>
@@ -22529,7 +22523,7 @@
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B492" s="50" t="s">
         <v>524</v>
@@ -22537,7 +22531,7 @@
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B493" s="50" t="s">
         <v>525</v>
@@ -22545,7 +22539,7 @@
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B494" s="50" t="s">
         <v>526</v>
@@ -22553,7 +22547,7 @@
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B495" s="50" t="s">
         <v>527</v>
@@ -22561,7 +22555,7 @@
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B496" s="50" t="s">
         <v>528</v>
@@ -22569,7 +22563,7 @@
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B497" s="50" t="s">
         <v>529</v>
@@ -22577,7 +22571,7 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B498" s="50" t="s">
         <v>530</v>
@@ -22585,7 +22579,7 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B499" s="50" t="s">
         <v>531</v>
@@ -22593,7 +22587,7 @@
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B500" s="50" t="s">
         <v>532</v>
@@ -22601,7 +22595,7 @@
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B501" s="50" t="s">
         <v>533</v>
@@ -22609,7 +22603,7 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B502" s="50" t="s">
         <v>534</v>
@@ -22617,7 +22611,7 @@
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B503" s="50" t="s">
         <v>535</v>
@@ -22625,7 +22619,7 @@
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B504" s="50" t="s">
         <v>536</v>
@@ -22633,7 +22627,7 @@
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B505" s="50" t="s">
         <v>537</v>
@@ -22641,7 +22635,7 @@
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B506" s="50" t="s">
         <v>538</v>
@@ -22649,7 +22643,7 @@
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B507" s="50" t="s">
         <v>539</v>
@@ -22657,7 +22651,7 @@
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B508" s="50" t="s">
         <v>540</v>
@@ -22665,7 +22659,7 @@
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B509" s="50" t="s">
         <v>541</v>
@@ -22673,7 +22667,7 @@
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B510" s="50" t="s">
         <v>542</v>
@@ -22681,7 +22675,7 @@
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B511" s="50" t="s">
         <v>543</v>
@@ -22689,7 +22683,7 @@
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B512" s="50" t="s">
         <v>544</v>
@@ -22697,7 +22691,7 @@
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B513" s="50" t="s">
         <v>545</v>
@@ -22705,7 +22699,7 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B514" s="50" t="s">
         <v>546</v>
@@ -22713,7 +22707,7 @@
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B515" s="50" t="s">
         <v>547</v>
@@ -22721,7 +22715,7 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B516" s="50" t="s">
         <v>548</v>
@@ -22729,7 +22723,7 @@
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B517" s="50" t="s">
         <v>549</v>
@@ -22737,7 +22731,7 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B518" s="50" t="s">
         <v>550</v>
@@ -22745,7 +22739,7 @@
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B519" s="50" t="s">
         <v>551</v>
@@ -22753,7 +22747,7 @@
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B520" s="50" t="s">
         <v>552</v>
@@ -22761,7 +22755,7 @@
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B521" s="50" t="s">
         <v>553</v>
@@ -22769,7 +22763,7 @@
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B522" s="50" t="s">
         <v>554</v>
@@ -22777,7 +22771,7 @@
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B523" s="50" t="s">
         <v>555</v>
@@ -22785,7 +22779,7 @@
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B524" s="50" t="s">
         <v>556</v>
@@ -22793,7 +22787,7 @@
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B525" s="50" t="s">
         <v>557</v>
@@ -22801,7 +22795,7 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B526" s="50" t="s">
         <v>558</v>
@@ -22809,7 +22803,7 @@
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B527" s="50" t="s">
         <v>559</v>
@@ -22817,7 +22811,7 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B528" s="50" t="s">
         <v>560</v>
@@ -22825,7 +22819,7 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B529" s="50" t="s">
         <v>561</v>
@@ -22833,7 +22827,7 @@
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B530" s="50" t="s">
         <v>562</v>
@@ -22841,7 +22835,7 @@
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B531" s="50" t="s">
         <v>563</v>
@@ -22849,7 +22843,7 @@
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B532" s="50" t="s">
         <v>564</v>
@@ -22857,7 +22851,7 @@
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B533" s="50" t="s">
         <v>565</v>
@@ -22865,7 +22859,7 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B534" s="50" t="s">
         <v>566</v>
@@ -22873,7 +22867,7 @@
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B535" s="50" t="s">
         <v>567</v>
@@ -22881,7 +22875,7 @@
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B536" s="50" t="s">
         <v>568</v>
@@ -22889,7 +22883,7 @@
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B537" s="50" t="s">
         <v>569</v>
@@ -22897,7 +22891,7 @@
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B538" s="50" t="s">
         <v>570</v>
@@ -22905,7 +22899,7 @@
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B539" s="50" t="s">
         <v>571</v>
@@ -22913,7 +22907,7 @@
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B540" s="50" t="s">
         <v>572</v>
@@ -22921,7 +22915,7 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B541" s="50" t="s">
         <v>573</v>
@@ -22929,7 +22923,7 @@
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B542" s="50" t="s">
         <v>574</v>
@@ -22937,7 +22931,7 @@
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B543" s="50" t="s">
         <v>575</v>
@@ -22945,7 +22939,7 @@
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B544" s="50" t="s">
         <v>576</v>
@@ -22953,7 +22947,7 @@
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B545" s="50" t="s">
         <v>577</v>
@@ -22961,7 +22955,7 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B546" s="50" t="s">
         <v>578</v>
@@ -22969,7 +22963,7 @@
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B547" s="50" t="s">
         <v>579</v>
@@ -22977,7 +22971,7 @@
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B548" s="50" t="s">
         <v>580</v>
@@ -22985,7 +22979,7 @@
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B549" s="50" t="s">
         <v>581</v>
@@ -22993,7 +22987,7 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B550" s="50" t="s">
         <v>582</v>
@@ -23001,7 +22995,7 @@
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B551" s="50" t="s">
         <v>583</v>
@@ -23009,7 +23003,7 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B552" s="50" t="s">
         <v>584</v>
@@ -23017,7 +23011,7 @@
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B553" s="50" t="s">
         <v>585</v>
@@ -23025,7 +23019,7 @@
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B554" s="50" t="s">
         <v>586</v>
@@ -23033,7 +23027,7 @@
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B555" s="50" t="s">
         <v>587</v>
@@ -23041,7 +23035,7 @@
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B556" s="50" t="s">
         <v>588</v>
@@ -23049,7 +23043,7 @@
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B557" s="50" t="s">
         <v>589</v>
@@ -23057,7 +23051,7 @@
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B558" s="50" t="s">
         <v>590</v>
@@ -23065,7 +23059,7 @@
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B559" s="50" t="s">
         <v>591</v>
@@ -23073,7 +23067,7 @@
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B560" s="50" t="s">
         <v>592</v>
@@ -23081,7 +23075,7 @@
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B561" s="50" t="s">
         <v>593</v>
@@ -23089,7 +23083,7 @@
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B562" s="50" t="s">
         <v>594</v>
@@ -23097,7 +23091,7 @@
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B563" s="50" t="s">
         <v>595</v>
@@ -23105,7 +23099,7 @@
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B564" s="50" t="s">
         <v>596</v>
@@ -23113,7 +23107,7 @@
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B565" s="50" t="s">
         <v>597</v>
@@ -23121,7 +23115,7 @@
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B566" s="50" t="s">
         <v>598</v>
@@ -23129,7 +23123,7 @@
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B567" s="50" t="s">
         <v>599</v>
@@ -23137,7 +23131,7 @@
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B568" s="50" t="s">
         <v>600</v>
@@ -23145,7 +23139,7 @@
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B569" s="50" t="s">
         <v>601</v>
@@ -23153,7 +23147,7 @@
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B570" s="50" t="s">
         <v>602</v>
@@ -23161,7 +23155,7 @@
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B571" s="50" t="s">
         <v>603</v>
@@ -23169,7 +23163,7 @@
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B572" s="50" t="s">
         <v>604</v>
@@ -23177,7 +23171,7 @@
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B573" s="50" t="s">
         <v>605</v>
@@ -23185,7 +23179,7 @@
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B574" s="50" t="s">
         <v>606</v>
@@ -23193,7 +23187,7 @@
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B575" s="50" t="s">
         <v>607</v>
@@ -23201,7 +23195,7 @@
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B576" s="50" t="s">
         <v>608</v>
@@ -23209,7 +23203,7 @@
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B577" s="50" t="s">
         <v>609</v>
@@ -23217,7 +23211,7 @@
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B578" s="50" t="s">
         <v>610</v>
@@ -23225,7 +23219,7 @@
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B579" s="50" t="s">
         <v>611</v>
@@ -23233,7 +23227,7 @@
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B580" s="50" t="s">
         <v>612</v>
@@ -23241,7 +23235,7 @@
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B581" s="50" t="s">
         <v>613</v>
@@ -23249,7 +23243,7 @@
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B582" s="50" t="s">
         <v>614</v>
@@ -23257,7 +23251,7 @@
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B583" s="50" t="s">
         <v>615</v>
@@ -23265,7 +23259,7 @@
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B584" s="50" t="s">
         <v>616</v>
@@ -23273,7 +23267,7 @@
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B585" s="50" t="s">
         <v>617</v>
@@ -23281,7 +23275,7 @@
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B586" s="50" t="s">
         <v>618</v>
@@ -23289,7 +23283,7 @@
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B587" s="50" t="s">
         <v>619</v>
@@ -23297,7 +23291,7 @@
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B588" s="50" t="s">
         <v>620</v>
@@ -23305,7 +23299,7 @@
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B589" s="50" t="s">
         <v>621</v>
@@ -23313,7 +23307,7 @@
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B590" s="50" t="s">
         <v>622</v>
@@ -23321,7 +23315,7 @@
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B591" s="50" t="s">
         <v>623</v>
@@ -23329,7 +23323,7 @@
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B592" s="50" t="s">
         <v>624</v>
@@ -23337,7 +23331,7 @@
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B593" s="50" t="s">
         <v>625</v>
@@ -23345,7 +23339,7 @@
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B594" s="50" t="s">
         <v>626</v>
@@ -23353,7 +23347,7 @@
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B595" s="50" t="s">
         <v>627</v>
@@ -23361,7 +23355,7 @@
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B596" s="50" t="s">
         <v>628</v>
@@ -23369,7 +23363,7 @@
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B597" s="50" t="s">
         <v>629</v>
@@ -23377,7 +23371,7 @@
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B598" s="50" t="s">
         <v>630</v>
@@ -23385,31 +23379,31 @@
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B599" s="50" t="s">
-        <v>631</v>
+        <v>66</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B600" s="50" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B601" s="50" t="s">
-        <v>66</v>
+        <v>632</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B602" s="50" t="s">
         <v>633</v>
@@ -23417,7 +23411,7 @@
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B603" s="50" t="s">
         <v>634</v>
@@ -23425,7 +23419,7 @@
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B604" s="50" t="s">
         <v>635</v>
@@ -23433,7 +23427,7 @@
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B605" s="50" t="s">
         <v>636</v>
@@ -23441,7 +23435,7 @@
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B606" s="50" t="s">
         <v>637</v>
@@ -23449,7 +23443,7 @@
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B607" s="50" t="s">
         <v>638</v>
@@ -23457,7 +23451,7 @@
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B608" s="50" t="s">
         <v>639</v>
@@ -23465,7 +23459,7 @@
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B609" s="50" t="s">
         <v>640</v>
@@ -23473,7 +23467,7 @@
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B610" s="50" t="s">
         <v>641</v>
@@ -23481,7 +23475,7 @@
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B611" s="50" t="s">
         <v>642</v>
@@ -23489,7 +23483,7 @@
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B612" s="50" t="s">
         <v>643</v>
@@ -23497,7 +23491,7 @@
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B613" s="50" t="s">
         <v>644</v>
@@ -23505,7 +23499,7 @@
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B614" s="50" t="s">
         <v>645</v>
@@ -23513,7 +23507,7 @@
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B615" s="50" t="s">
         <v>646</v>
@@ -23521,7 +23515,7 @@
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B616" s="50" t="s">
         <v>647</v>
@@ -23529,7 +23523,7 @@
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B617" s="50" t="s">
         <v>648</v>
@@ -23537,7 +23531,7 @@
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B618" s="50" t="s">
         <v>649</v>
@@ -23545,7 +23539,7 @@
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B619" s="50" t="s">
         <v>650</v>
@@ -23553,7 +23547,7 @@
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B620" s="50" t="s">
         <v>651</v>
@@ -23561,7 +23555,7 @@
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B621" s="50" t="s">
         <v>652</v>
@@ -23569,7 +23563,7 @@
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B622" s="50" t="s">
         <v>653</v>
@@ -23577,7 +23571,7 @@
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B623" s="50" t="s">
         <v>654</v>
@@ -23585,7 +23579,7 @@
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B624" s="50" t="s">
         <v>655</v>
@@ -23593,7 +23587,7 @@
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B625" s="50" t="s">
         <v>656</v>
@@ -23601,7 +23595,7 @@
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B626" s="50" t="s">
         <v>657</v>
@@ -23609,7 +23603,7 @@
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B627" s="50" t="s">
         <v>658</v>
@@ -23617,7 +23611,7 @@
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B628" s="50" t="s">
         <v>659</v>
@@ -23625,7 +23619,7 @@
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B629" s="50" t="s">
         <v>660</v>
@@ -23633,7 +23627,7 @@
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B630" s="50" t="s">
         <v>661</v>
@@ -23641,7 +23635,7 @@
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B631" s="50" t="s">
         <v>662</v>
@@ -23649,7 +23643,7 @@
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B632" s="50" t="s">
         <v>663</v>
@@ -23657,7 +23651,7 @@
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B633" s="50" t="s">
         <v>664</v>
@@ -23665,7 +23659,7 @@
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B634" s="50" t="s">
         <v>665</v>
@@ -23673,7 +23667,7 @@
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B635" s="50" t="s">
         <v>666</v>
@@ -23681,7 +23675,7 @@
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B636" s="50" t="s">
         <v>667</v>
@@ -23689,7 +23683,7 @@
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B637" s="50" t="s">
         <v>668</v>
@@ -23697,7 +23691,7 @@
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B638" s="50" t="s">
         <v>669</v>
@@ -23705,7 +23699,7 @@
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B639" s="50" t="s">
         <v>670</v>
@@ -23713,7 +23707,7 @@
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B640" s="50" t="s">
         <v>671</v>
@@ -23721,7 +23715,7 @@
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B641" s="50" t="s">
         <v>672</v>
@@ -23729,7 +23723,7 @@
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B642" s="50" t="s">
         <v>673</v>
@@ -23737,7 +23731,7 @@
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B643" s="50" t="s">
         <v>674</v>
@@ -23745,7 +23739,7 @@
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B644" s="50" t="s">
         <v>675</v>
@@ -23753,7 +23747,7 @@
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B645" s="50" t="s">
         <v>676</v>
@@ -23761,7 +23755,7 @@
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B646" s="50" t="s">
         <v>677</v>
@@ -23769,7 +23763,7 @@
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B647" s="50" t="s">
         <v>678</v>
@@ -23777,7 +23771,7 @@
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B648" s="50" t="s">
         <v>679</v>
@@ -23785,7 +23779,7 @@
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B649" s="50" t="s">
         <v>680</v>
@@ -23793,7 +23787,7 @@
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B650" s="50" t="s">
         <v>681</v>
@@ -23801,7 +23795,7 @@
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B651" s="50" t="s">
         <v>682</v>
@@ -23809,7 +23803,7 @@
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B652" s="50" t="s">
         <v>683</v>
@@ -23817,7 +23811,7 @@
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B653" s="50" t="s">
         <v>684</v>
@@ -23825,7 +23819,7 @@
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B654" s="50" t="s">
         <v>685</v>
@@ -23833,7 +23827,7 @@
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B655" s="50" t="s">
         <v>686</v>
@@ -23841,7 +23835,7 @@
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B656" s="50" t="s">
         <v>687</v>
@@ -23849,7 +23843,7 @@
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B657" s="50" t="s">
         <v>688</v>
@@ -23857,7 +23851,7 @@
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B658" s="50" t="s">
         <v>689</v>
@@ -23865,7 +23859,7 @@
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B659" s="50" t="s">
         <v>690</v>
@@ -23873,7 +23867,7 @@
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B660" s="50" t="s">
         <v>691</v>
@@ -23881,7 +23875,7 @@
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B661" s="50" t="s">
         <v>692</v>
@@ -23889,7 +23883,7 @@
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B662" s="50" t="s">
         <v>693</v>
@@ -23897,7 +23891,7 @@
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B663" s="50" t="s">
         <v>694</v>
@@ -23905,7 +23899,7 @@
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B664" s="50" t="s">
         <v>695</v>
@@ -23913,7 +23907,7 @@
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B665" s="50" t="s">
         <v>696</v>
@@ -23921,7 +23915,7 @@
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B666" s="50" t="s">
         <v>697</v>
@@ -23929,7 +23923,7 @@
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B667" s="50" t="s">
         <v>698</v>
@@ -23937,7 +23931,7 @@
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B668" s="50" t="s">
         <v>699</v>
@@ -23945,7 +23939,7 @@
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B669" s="50" t="s">
         <v>700</v>
@@ -23953,7 +23947,7 @@
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B670" s="50" t="s">
         <v>701</v>
@@ -23961,7 +23955,7 @@
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B671" s="50" t="s">
         <v>702</v>
@@ -23969,7 +23963,7 @@
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B672" s="50" t="s">
         <v>703</v>
@@ -23977,26 +23971,26 @@
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B673" s="50" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B674" s="50" t="s">
+    <row r="676" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B676" s="51" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B675" s="50" t="s">
-        <v>706</v>
+    <row r="677" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B677" s="51" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24004,23 +23998,7 @@
         <v>15</v>
       </c>
       <c r="B678" s="51" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="679" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B679" s="51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="680" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B680" s="51" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -24051,17 +24029,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="52" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24069,7 +24047,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24077,7 +24055,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24085,7 +24063,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24093,7 +24071,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24101,7 +24079,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24109,7 +24087,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24117,7 +24095,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24125,7 +24103,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24133,7 +24111,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24141,7 +24119,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24149,7 +24127,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24157,7 +24135,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24165,7 +24143,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24173,7 +24151,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24181,7 +24159,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24189,7 +24167,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24197,7 +24175,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24205,7 +24183,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24213,7 +24191,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24221,7 +24199,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24229,7 +24207,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24237,7 +24215,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24245,7 +24223,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24253,7 +24231,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24261,7 +24239,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24269,7 +24247,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24277,7 +24255,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24285,7 +24263,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24293,7 +24271,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24301,7 +24279,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24309,7 +24287,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24317,7 +24295,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24325,7 +24303,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24333,7 +24311,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24341,7 +24319,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24349,7 +24327,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24357,7 +24335,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24365,7 +24343,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24373,7 +24351,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24381,7 +24359,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24389,7 +24367,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24397,7 +24375,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24405,7 +24383,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24413,7 +24391,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24421,7 +24399,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24429,7 +24407,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24437,7 +24415,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24445,7 +24423,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24453,7 +24431,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24461,7 +24439,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24469,7 +24447,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24477,7 +24455,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24485,7 +24463,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24493,7 +24471,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24501,7 +24479,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24509,7 +24487,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24517,7 +24495,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24525,7 +24503,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24533,7 +24511,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24541,7 +24519,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24549,7 +24527,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24557,7 +24535,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24565,7 +24543,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24573,7 +24551,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24581,7 +24559,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24589,7 +24567,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24597,7 +24575,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24605,7 +24583,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24613,7 +24591,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24621,7 +24599,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24629,7 +24607,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24637,7 +24615,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24645,7 +24623,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24653,7 +24631,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="55" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24661,7 +24639,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24669,7 +24647,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24677,7 +24655,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24685,7 +24663,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24693,7 +24671,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24701,7 +24679,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24709,7 +24687,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24717,7 +24695,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24725,7 +24703,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24733,7 +24711,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24741,7 +24719,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24749,7 +24727,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24757,7 +24735,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24765,7 +24743,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24773,7 +24751,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24781,7 +24759,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24789,7 +24767,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24797,7 +24775,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24805,7 +24783,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24813,7 +24791,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24821,7 +24799,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24829,7 +24807,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24837,7 +24815,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24845,7 +24823,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24853,7 +24831,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24861,7 +24839,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24869,7 +24847,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24877,7 +24855,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24885,7 +24863,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24893,7 +24871,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24901,7 +24879,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24909,7 +24887,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24917,7 +24895,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24925,7 +24903,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24933,7 +24911,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24941,7 +24919,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24949,7 +24927,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24957,7 +24935,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24965,7 +24943,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24973,7 +24951,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24981,7 +24959,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24989,7 +24967,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24997,7 +24975,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25005,7 +24983,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25013,7 +24991,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25021,7 +24999,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25029,7 +25007,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25037,7 +25015,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25045,7 +25023,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25053,7 +25031,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25061,7 +25039,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25069,7 +25047,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25077,7 +25055,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25085,7 +25063,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25093,7 +25071,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25101,7 +25079,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25109,7 +25087,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="55" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25117,7 +25095,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25125,7 +25103,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25133,7 +25111,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25141,7 +25119,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25149,7 +25127,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25157,7 +25135,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="55" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25165,7 +25143,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25173,7 +25151,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25181,7 +25159,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25189,7 +25167,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25197,7 +25175,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25205,7 +25183,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25213,7 +25191,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/обувь_по каждому размеру.xlsx
+++ b/app/download_dir/system_files/обувь_по каждому размеру.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="854">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -946,6 +946,12 @@
   </si>
   <si>
     <t xml:space="preserve">МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРО-ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРО-ЗЕЛЁНЫЙ</t>
   </si>
   <si>
     <t xml:space="preserve">16.5</t>
@@ -3813,10 +3819,10 @@
   <dimension ref="A1:AC1035"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.04"/>
@@ -3832,7 +3838,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="11.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="7.39"/>
@@ -18667,19 +18673,19 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7" type="list">
-      <formula1>Справочники!$B$433:$B$673</formula1>
+      <formula1>Справочники!$B$434:$B$674</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I7:J1034" type="list">
-      <formula1>Справочники!$B$366:$B$404</formula1>
+      <formula1>Справочники!$B$367:$B$405</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U7:U1034" type="list">
-      <formula1>Справочники!$B$676:$B$678</formula1>
+      <formula1>Справочники!$B$677:$B$679</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T9:T1034" type="list">
-      <formula1>Справочники!$B$433:$B$673</formula1>
+      <formula1>Справочники!$B$434:$B$674</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F7:F8" type="list">
@@ -18687,7 +18693,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H7:H8" type="list">
-      <formula1>Справочники!$B$243:$B$364</formula1>
+      <formula1>Справочники!$B$244:$B$365</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 G6:H6" type="textLength">
@@ -18699,11 +18705,11 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H9:H1034" type="list">
-      <formula1>Справочники!$B$243:$B$364</formula1>
+      <formula1>Справочники!$B$244:$B$365</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T8" type="list">
-      <formula1>Справочники!$B$433:$B$673</formula1>
+      <formula1>Справочники!$B$434:$B$674</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6" type="textLength">
@@ -18711,11 +18717,11 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K7:K1034" type="list">
-      <formula1>Справочники!$B$408:$B$422</formula1>
+      <formula1>Справочники!$B$409:$B$423</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O7:O1034" type="list">
-      <formula1>Справочники!$B$425:$B$430</formula1>
+      <formula1>Справочники!$B$426:$B$431</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5 B34" type="textLength">
@@ -18738,13 +18744,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B678"/>
+  <dimension ref="A1:B679"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A382" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B402" activeCellId="0" sqref="B402"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A242" activeCellId="0" sqref="A242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.59"/>
@@ -20616,13 +20622,16 @@
       <c r="A240" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B243" s="47" t="s">
-        <v>60</v>
+      <c r="B240" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20630,7 +20639,7 @@
         <v>6</v>
       </c>
       <c r="B244" s="47" t="s">
-        <v>306</v>
+        <v>60</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20638,7 +20647,7 @@
         <v>6</v>
       </c>
       <c r="B245" s="47" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20646,7 +20655,7 @@
         <v>6</v>
       </c>
       <c r="B246" s="47" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20654,7 +20663,7 @@
         <v>6</v>
       </c>
       <c r="B247" s="47" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20662,7 +20671,7 @@
         <v>6</v>
       </c>
       <c r="B248" s="47" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20670,7 +20679,7 @@
         <v>6</v>
       </c>
       <c r="B249" s="47" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20678,7 +20687,7 @@
         <v>6</v>
       </c>
       <c r="B250" s="47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20686,7 +20695,7 @@
         <v>6</v>
       </c>
       <c r="B251" s="47" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20694,7 +20703,7 @@
         <v>6</v>
       </c>
       <c r="B252" s="47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20702,7 +20711,7 @@
         <v>6</v>
       </c>
       <c r="B253" s="47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20710,7 +20719,7 @@
         <v>6</v>
       </c>
       <c r="B254" s="47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20718,7 +20727,7 @@
         <v>6</v>
       </c>
       <c r="B255" s="47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20726,7 +20735,7 @@
         <v>6</v>
       </c>
       <c r="B256" s="47" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20734,7 +20743,7 @@
         <v>6</v>
       </c>
       <c r="B257" s="47" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20742,7 +20751,7 @@
         <v>6</v>
       </c>
       <c r="B258" s="47" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20750,7 +20759,7 @@
         <v>6</v>
       </c>
       <c r="B259" s="47" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20758,7 +20767,7 @@
         <v>6</v>
       </c>
       <c r="B260" s="47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20766,7 +20775,7 @@
         <v>6</v>
       </c>
       <c r="B261" s="47" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20774,7 +20783,7 @@
         <v>6</v>
       </c>
       <c r="B262" s="47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20782,7 +20791,7 @@
         <v>6</v>
       </c>
       <c r="B263" s="47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20790,7 +20799,7 @@
         <v>6</v>
       </c>
       <c r="B264" s="47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20798,7 +20807,7 @@
         <v>6</v>
       </c>
       <c r="B265" s="47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20806,7 +20815,7 @@
         <v>6</v>
       </c>
       <c r="B266" s="47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20814,7 +20823,7 @@
         <v>6</v>
       </c>
       <c r="B267" s="47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20822,7 +20831,7 @@
         <v>6</v>
       </c>
       <c r="B268" s="47" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20830,7 +20839,7 @@
         <v>6</v>
       </c>
       <c r="B269" s="47" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20838,7 +20847,7 @@
         <v>6</v>
       </c>
       <c r="B270" s="47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20846,7 +20855,7 @@
         <v>6</v>
       </c>
       <c r="B271" s="47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20854,7 +20863,7 @@
         <v>6</v>
       </c>
       <c r="B272" s="47" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20862,7 +20871,7 @@
         <v>6</v>
       </c>
       <c r="B273" s="47" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20870,7 +20879,7 @@
         <v>6</v>
       </c>
       <c r="B274" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20878,7 +20887,7 @@
         <v>6</v>
       </c>
       <c r="B275" s="47" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20886,7 +20895,7 @@
         <v>6</v>
       </c>
       <c r="B276" s="47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20894,7 +20903,7 @@
         <v>6</v>
       </c>
       <c r="B277" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20902,7 +20911,7 @@
         <v>6</v>
       </c>
       <c r="B278" s="47" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20910,7 +20919,7 @@
         <v>6</v>
       </c>
       <c r="B279" s="47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20918,7 +20927,7 @@
         <v>6</v>
       </c>
       <c r="B280" s="47" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20926,7 +20935,7 @@
         <v>6</v>
       </c>
       <c r="B281" s="47" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20934,7 +20943,7 @@
         <v>6</v>
       </c>
       <c r="B282" s="47" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20942,7 +20951,7 @@
         <v>6</v>
       </c>
       <c r="B283" s="47" t="s">
-        <v>23</v>
+        <v>346</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20950,7 +20959,7 @@
         <v>6</v>
       </c>
       <c r="B284" s="47" t="s">
-        <v>345</v>
+        <v>23</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20958,7 +20967,7 @@
         <v>6</v>
       </c>
       <c r="B285" s="47" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20966,7 +20975,7 @@
         <v>6</v>
       </c>
       <c r="B286" s="47" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20974,7 +20983,7 @@
         <v>6</v>
       </c>
       <c r="B287" s="47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20982,7 +20991,7 @@
         <v>6</v>
       </c>
       <c r="B288" s="47" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20990,7 +20999,7 @@
         <v>6</v>
       </c>
       <c r="B289" s="47" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20998,7 +21007,7 @@
         <v>6</v>
       </c>
       <c r="B290" s="47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21006,7 +21015,7 @@
         <v>6</v>
       </c>
       <c r="B291" s="47" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21014,7 +21023,7 @@
         <v>6</v>
       </c>
       <c r="B292" s="47" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21022,7 +21031,7 @@
         <v>6</v>
       </c>
       <c r="B293" s="47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21030,7 +21039,7 @@
         <v>6</v>
       </c>
       <c r="B294" s="47" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21038,7 +21047,7 @@
         <v>6</v>
       </c>
       <c r="B295" s="47" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21046,7 +21055,7 @@
         <v>6</v>
       </c>
       <c r="B296" s="47" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21054,7 +21063,7 @@
         <v>6</v>
       </c>
       <c r="B297" s="47" t="s">
-        <v>71</v>
+        <v>359</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21062,7 +21071,7 @@
         <v>6</v>
       </c>
       <c r="B298" s="47" t="s">
-        <v>358</v>
+        <v>71</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21070,7 +21079,7 @@
         <v>6</v>
       </c>
       <c r="B299" s="47" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21078,7 +21087,7 @@
         <v>6</v>
       </c>
       <c r="B300" s="47" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21086,7 +21095,7 @@
         <v>6</v>
       </c>
       <c r="B301" s="47" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21094,7 +21103,7 @@
         <v>6</v>
       </c>
       <c r="B302" s="47" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21102,7 +21111,7 @@
         <v>6</v>
       </c>
       <c r="B303" s="47" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21110,7 +21119,7 @@
         <v>6</v>
       </c>
       <c r="B304" s="47" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21118,7 +21127,7 @@
         <v>6</v>
       </c>
       <c r="B305" s="47" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21126,7 +21135,7 @@
         <v>6</v>
       </c>
       <c r="B306" s="47" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21134,7 +21143,7 @@
         <v>6</v>
       </c>
       <c r="B307" s="47" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21142,7 +21151,7 @@
         <v>6</v>
       </c>
       <c r="B308" s="47" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21150,7 +21159,7 @@
         <v>6</v>
       </c>
       <c r="B309" s="47" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21158,7 +21167,7 @@
         <v>6</v>
       </c>
       <c r="B310" s="47" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21166,7 +21175,7 @@
         <v>6</v>
       </c>
       <c r="B311" s="47" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21174,7 +21183,7 @@
         <v>6</v>
       </c>
       <c r="B312" s="47" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21182,7 +21191,7 @@
         <v>6</v>
       </c>
       <c r="B313" s="47" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21190,7 +21199,7 @@
         <v>6</v>
       </c>
       <c r="B314" s="47" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21198,7 +21207,7 @@
         <v>6</v>
       </c>
       <c r="B315" s="47" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21206,7 +21215,7 @@
         <v>6</v>
       </c>
       <c r="B316" s="47" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21214,7 +21223,7 @@
         <v>6</v>
       </c>
       <c r="B317" s="47" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21222,7 +21231,7 @@
         <v>6</v>
       </c>
       <c r="B318" s="47" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21230,7 +21239,7 @@
         <v>6</v>
       </c>
       <c r="B319" s="47" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21238,7 +21247,7 @@
         <v>6</v>
       </c>
       <c r="B320" s="47" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21246,7 +21255,7 @@
         <v>6</v>
       </c>
       <c r="B321" s="47" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21254,7 +21263,7 @@
         <v>6</v>
       </c>
       <c r="B322" s="47" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21262,7 +21271,7 @@
         <v>6</v>
       </c>
       <c r="B323" s="47" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21270,15 +21279,15 @@
         <v>6</v>
       </c>
       <c r="B324" s="47" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B325" s="48" t="s">
-        <v>385</v>
+      <c r="B325" s="47" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21286,7 +21295,7 @@
         <v>6</v>
       </c>
       <c r="B326" s="48" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21294,7 +21303,7 @@
         <v>6</v>
       </c>
       <c r="B327" s="48" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21302,7 +21311,7 @@
         <v>6</v>
       </c>
       <c r="B328" s="48" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21310,7 +21319,7 @@
         <v>6</v>
       </c>
       <c r="B329" s="48" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21318,7 +21327,7 @@
         <v>6</v>
       </c>
       <c r="B330" s="48" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21326,7 +21335,7 @@
         <v>6</v>
       </c>
       <c r="B331" s="48" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21334,7 +21343,7 @@
         <v>6</v>
       </c>
       <c r="B332" s="48" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21342,7 +21351,7 @@
         <v>6</v>
       </c>
       <c r="B333" s="48" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21350,7 +21359,7 @@
         <v>6</v>
       </c>
       <c r="B334" s="48" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21358,7 +21367,7 @@
         <v>6</v>
       </c>
       <c r="B335" s="48" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21366,7 +21375,7 @@
         <v>6</v>
       </c>
       <c r="B336" s="48" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21374,7 +21383,7 @@
         <v>6</v>
       </c>
       <c r="B337" s="48" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21382,7 +21391,7 @@
         <v>6</v>
       </c>
       <c r="B338" s="48" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21390,7 +21399,7 @@
         <v>6</v>
       </c>
       <c r="B339" s="48" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21398,7 +21407,7 @@
         <v>6</v>
       </c>
       <c r="B340" s="48" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21406,7 +21415,7 @@
         <v>6</v>
       </c>
       <c r="B341" s="48" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21414,7 +21423,7 @@
         <v>6</v>
       </c>
       <c r="B342" s="48" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21422,7 +21431,7 @@
         <v>6</v>
       </c>
       <c r="B343" s="48" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21430,7 +21439,7 @@
         <v>6</v>
       </c>
       <c r="B344" s="48" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21438,7 +21447,7 @@
         <v>6</v>
       </c>
       <c r="B345" s="48" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21446,7 +21455,7 @@
         <v>6</v>
       </c>
       <c r="B346" s="48" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21454,7 +21463,7 @@
         <v>6</v>
       </c>
       <c r="B347" s="48" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21462,7 +21471,7 @@
         <v>6</v>
       </c>
       <c r="B348" s="48" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21470,7 +21479,7 @@
         <v>6</v>
       </c>
       <c r="B349" s="48" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21478,7 +21487,7 @@
         <v>6</v>
       </c>
       <c r="B350" s="48" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21486,7 +21495,7 @@
         <v>6</v>
       </c>
       <c r="B351" s="48" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21494,7 +21503,7 @@
         <v>6</v>
       </c>
       <c r="B352" s="48" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21502,7 +21511,7 @@
         <v>6</v>
       </c>
       <c r="B353" s="48" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21510,7 +21519,7 @@
         <v>6</v>
       </c>
       <c r="B354" s="48" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21518,7 +21527,7 @@
         <v>6</v>
       </c>
       <c r="B355" s="48" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21526,7 +21535,7 @@
         <v>6</v>
       </c>
       <c r="B356" s="48" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21534,7 +21543,7 @@
         <v>6</v>
       </c>
       <c r="B357" s="48" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21542,7 +21551,7 @@
         <v>6</v>
       </c>
       <c r="B358" s="48" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21550,7 +21559,7 @@
         <v>6</v>
       </c>
       <c r="B359" s="48" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21558,7 +21567,7 @@
         <v>6</v>
       </c>
       <c r="B360" s="48" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21566,7 +21575,7 @@
         <v>6</v>
       </c>
       <c r="B361" s="48" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21574,7 +21583,7 @@
         <v>6</v>
       </c>
       <c r="B362" s="48" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21582,7 +21591,7 @@
         <v>6</v>
       </c>
       <c r="B363" s="48" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21590,2399 +21599,2399 @@
         <v>6</v>
       </c>
       <c r="B364" s="48" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B366" s="1" t="s">
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B365" s="48" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>73</v>
+        <v>432</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>431</v>
+        <v>73</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>63</v>
+        <v>444</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>443</v>
+        <v>62</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B394" s="49" t="s">
-        <v>451</v>
+        <v>427</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>452</v>
+        <v>427</v>
+      </c>
+      <c r="B395" s="49" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>61</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>455</v>
+        <v>61</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>456</v>
+        <v>73</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>63</v>
+        <v>459</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>430</v>
+        <v>63</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B425" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B423" s="1" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>64</v>
+        <v>463</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>462</v>
+        <v>74</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B433" s="50" t="s">
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B431" s="1" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B434" s="50" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B435" s="50" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B436" s="50" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B437" s="50" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B438" s="50" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B439" s="50" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B440" s="50" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B441" s="50" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B442" s="50" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B443" s="50" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B444" s="50" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B445" s="50" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B446" s="50" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B447" s="50" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B448" s="50" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B449" s="50" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B450" s="50" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B451" s="50" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B452" s="50" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B453" s="50" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B454" s="50" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B455" s="50" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B456" s="50" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B457" s="50" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B458" s="50" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B459" s="50" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B460" s="50" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B461" s="50" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B462" s="50" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B463" s="50" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B464" s="50" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B465" s="50" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B466" s="50" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B467" s="50" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B468" s="50" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B469" s="50" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B470" s="50" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B471" s="50" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B472" s="50" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B473" s="50" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B474" s="50" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B475" s="50" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B476" s="50" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B477" s="50" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B478" s="50" t="s">
-        <v>75</v>
+        <v>512</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B479" s="50" t="s">
-        <v>511</v>
+        <v>75</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B480" s="50" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B481" s="50" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B482" s="50" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B483" s="50" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B484" s="50" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B485" s="50" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B486" s="50" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B487" s="50" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B488" s="50" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B489" s="50" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B490" s="50" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B491" s="50" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B492" s="50" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B493" s="50" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B494" s="50" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B495" s="50" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B496" s="50" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B497" s="50" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B498" s="50" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B499" s="50" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B500" s="50" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B501" s="50" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B502" s="50" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B503" s="50" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B504" s="50" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B505" s="50" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B506" s="50" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B507" s="50" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B508" s="50" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B509" s="50" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B510" s="50" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B511" s="50" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B512" s="50" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B513" s="50" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B514" s="50" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B515" s="50" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B516" s="50" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B517" s="50" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B518" s="50" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B519" s="50" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B520" s="50" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B521" s="50" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B522" s="50" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B523" s="50" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B524" s="50" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B525" s="50" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B526" s="50" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B527" s="50" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B528" s="50" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B529" s="50" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B530" s="50" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B531" s="50" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B532" s="50" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B533" s="50" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B534" s="50" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B535" s="50" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B536" s="50" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B537" s="50" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B538" s="50" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B539" s="50" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B540" s="50" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B541" s="50" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B542" s="50" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B543" s="50" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B544" s="50" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B545" s="50" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B546" s="50" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B547" s="50" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B548" s="50" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B549" s="50" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B550" s="50" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B551" s="50" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B552" s="50" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B553" s="50" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B554" s="50" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B555" s="50" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B556" s="50" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B557" s="50" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B558" s="50" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B559" s="50" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B560" s="50" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B561" s="50" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B562" s="50" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B563" s="50" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B564" s="50" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B565" s="50" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B566" s="50" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B567" s="50" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B568" s="50" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B569" s="50" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B570" s="50" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B571" s="50" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B572" s="50" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B573" s="50" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B574" s="50" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B575" s="50" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B576" s="50" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B577" s="50" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B578" s="50" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B579" s="50" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B580" s="50" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B581" s="50" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B582" s="50" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B583" s="50" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B584" s="50" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B585" s="50" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B586" s="50" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B587" s="50" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B588" s="50" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B589" s="50" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B590" s="50" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B591" s="50" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B592" s="50" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B593" s="50" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B594" s="50" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B595" s="50" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B596" s="50" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B597" s="50" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B598" s="50" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B599" s="50" t="s">
-        <v>66</v>
+        <v>632</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B600" s="50" t="s">
-        <v>631</v>
+        <v>66</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B601" s="50" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B602" s="50" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B603" s="50" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B604" s="50" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B605" s="50" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B606" s="50" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B607" s="50" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B608" s="50" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B609" s="50" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B610" s="50" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B611" s="50" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B612" s="50" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B613" s="50" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B614" s="50" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B615" s="50" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B616" s="50" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B617" s="50" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B618" s="50" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B619" s="50" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B620" s="50" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B621" s="50" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B622" s="50" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B623" s="50" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B624" s="50" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B625" s="50" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B626" s="50" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B627" s="50" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B628" s="50" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B629" s="50" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B630" s="50" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B631" s="50" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B632" s="50" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B633" s="50" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B634" s="50" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B635" s="50" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B636" s="50" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B637" s="50" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B638" s="50" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B639" s="50" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B640" s="50" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B641" s="50" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B642" s="50" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B643" s="50" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B644" s="50" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B645" s="50" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B646" s="50" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B647" s="50" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B648" s="50" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B649" s="50" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B650" s="50" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B651" s="50" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B652" s="50" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B653" s="50" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B654" s="50" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B655" s="50" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B656" s="50" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B657" s="50" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B658" s="50" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B659" s="50" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B660" s="50" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B661" s="50" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B662" s="50" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B663" s="50" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B664" s="50" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B665" s="50" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B666" s="50" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B667" s="50" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B668" s="50" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B669" s="50" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B670" s="50" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B671" s="50" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B672" s="50" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B673" s="50" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="676" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B676" s="51" t="s">
         <v>705</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B674" s="50" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23990,22 +23999,30 @@
         <v>15</v>
       </c>
       <c r="B677" s="51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="678" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B678" s="51" t="s">
-        <v>706</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A679" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B679" s="51" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B163:B273">
+  <conditionalFormatting sqref="B163:B274">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -24029,17 +24046,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="52" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24047,7 +24064,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24055,7 +24072,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24063,7 +24080,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24071,7 +24088,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24079,7 +24096,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24087,7 +24104,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24095,7 +24112,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24103,7 +24120,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24111,7 +24128,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24119,7 +24136,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24127,7 +24144,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24135,7 +24152,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24143,7 +24160,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24151,7 +24168,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24159,7 +24176,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24167,7 +24184,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24175,7 +24192,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24183,7 +24200,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24191,7 +24208,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24199,7 +24216,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24207,7 +24224,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24215,7 +24232,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24223,7 +24240,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24231,7 +24248,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24239,7 +24256,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24247,7 +24264,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24255,7 +24272,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24263,7 +24280,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24271,7 +24288,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24279,7 +24296,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24287,7 +24304,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24295,7 +24312,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24303,7 +24320,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24311,7 +24328,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24319,7 +24336,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24327,7 +24344,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24335,7 +24352,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24343,7 +24360,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24351,7 +24368,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24359,7 +24376,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24367,7 +24384,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24375,7 +24392,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24383,7 +24400,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24391,7 +24408,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24399,7 +24416,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24407,7 +24424,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24415,7 +24432,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24423,7 +24440,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24431,7 +24448,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24439,7 +24456,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24447,7 +24464,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24455,7 +24472,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24463,7 +24480,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24471,7 +24488,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24479,7 +24496,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24487,7 +24504,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24495,7 +24512,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24503,7 +24520,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24511,7 +24528,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24519,7 +24536,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24527,7 +24544,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24535,7 +24552,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24543,7 +24560,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24551,7 +24568,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24559,7 +24576,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24567,7 +24584,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24575,7 +24592,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24583,7 +24600,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24591,7 +24608,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24599,7 +24616,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24607,7 +24624,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24615,7 +24632,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24623,7 +24640,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24631,7 +24648,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="55" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24639,7 +24656,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24647,7 +24664,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24655,7 +24672,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24663,7 +24680,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24671,7 +24688,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24679,7 +24696,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24687,7 +24704,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24695,7 +24712,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24703,7 +24720,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24711,7 +24728,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24719,7 +24736,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24727,7 +24744,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24735,7 +24752,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24743,7 +24760,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24751,7 +24768,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24759,7 +24776,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24767,7 +24784,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24775,7 +24792,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24783,7 +24800,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24791,7 +24808,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24799,7 +24816,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24807,7 +24824,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24815,7 +24832,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24823,7 +24840,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24831,7 +24848,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24839,7 +24856,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24847,7 +24864,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24855,7 +24872,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24863,7 +24880,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24871,7 +24888,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24879,7 +24896,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24887,7 +24904,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24895,7 +24912,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24903,7 +24920,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24911,7 +24928,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24919,7 +24936,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24927,7 +24944,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24935,7 +24952,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24943,7 +24960,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24951,7 +24968,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24959,7 +24976,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24967,7 +24984,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24975,7 +24992,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24983,7 +25000,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24991,7 +25008,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24999,7 +25016,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25007,7 +25024,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25015,7 +25032,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25023,7 +25040,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25031,7 +25048,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25039,7 +25056,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25047,7 +25064,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25055,7 +25072,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25063,7 +25080,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25071,7 +25088,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25079,7 +25096,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25087,7 +25104,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="55" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25095,7 +25112,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25103,7 +25120,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25111,7 +25128,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25119,7 +25136,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25127,7 +25144,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25135,7 +25152,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="55" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25143,7 +25160,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25151,7 +25168,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25159,7 +25176,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25167,7 +25184,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25175,7 +25192,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25183,7 +25200,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25191,7 +25208,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/обувь_по каждому размеру.xlsx
+++ b/app/download_dir/system_files/обувь_по каждому размеру.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="853">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -231,7 +231,7 @@
     <t xml:space="preserve">РОССИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">Отказное письмо</t>
+    <t xml:space="preserve">Декларация соответствия</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -2149,9 +2149,6 @@
   </si>
   <si>
     <t xml:space="preserve">ЯПОНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Декларация соответствия</t>
   </si>
   <si>
     <t xml:space="preserve">Сертификат</t>
@@ -3819,10 +3816,10 @@
   <dimension ref="A1:AC1035"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="U7" activeCellId="0" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.04"/>
@@ -18681,7 +18678,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U7:U1034" type="list">
-      <formula1>Справочники!$B$677:$B$679</formula1>
+      <formula1>Справочники!$B$677:$B$678</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T9:T1034" type="list">
@@ -18744,13 +18741,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B679"/>
+  <dimension ref="A1:B678"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A242" activeCellId="0" sqref="A242"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A664" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A678" activeCellId="0" sqref="A678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.59"/>
@@ -23999,23 +23996,15 @@
         <v>15</v>
       </c>
       <c r="B677" s="51" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="678" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B678" s="51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="679" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A679" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B679" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -24046,17 +24035,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.06640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="52" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>709</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24064,7 +24053,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24072,7 +24061,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24080,7 +24069,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24088,7 +24077,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24096,7 +24085,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24104,7 +24093,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24112,7 +24101,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24120,7 +24109,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24128,7 +24117,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24136,7 +24125,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24144,7 +24133,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24152,7 +24141,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24160,7 +24149,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24168,7 +24157,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24176,7 +24165,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24184,7 +24173,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24192,7 +24181,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24200,7 +24189,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24208,7 +24197,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24216,7 +24205,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24224,7 +24213,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24232,7 +24221,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24240,7 +24229,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24248,7 +24237,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24256,7 +24245,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24264,7 +24253,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24272,7 +24261,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24280,7 +24269,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24288,7 +24277,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24296,7 +24285,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24304,7 +24293,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24312,7 +24301,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24320,7 +24309,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24328,7 +24317,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24336,7 +24325,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24344,7 +24333,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24352,7 +24341,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24360,7 +24349,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24368,7 +24357,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24376,7 +24365,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24384,7 +24373,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24392,7 +24381,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24400,7 +24389,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24408,7 +24397,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24416,7 +24405,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24424,7 +24413,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24432,7 +24421,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24440,7 +24429,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24448,7 +24437,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24456,7 +24445,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24464,7 +24453,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24472,7 +24461,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24480,7 +24469,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24488,7 +24477,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24496,7 +24485,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24504,7 +24493,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24512,7 +24501,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24520,7 +24509,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24528,7 +24517,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24536,7 +24525,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24544,7 +24533,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24552,7 +24541,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24560,7 +24549,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24568,7 +24557,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24576,7 +24565,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24584,7 +24573,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24592,7 +24581,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24600,7 +24589,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24608,7 +24597,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24616,7 +24605,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24624,7 +24613,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24632,7 +24621,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24640,7 +24629,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24648,7 +24637,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="55" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24656,7 +24645,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24664,7 +24653,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24672,7 +24661,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24680,7 +24669,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24688,7 +24677,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24696,7 +24685,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24704,7 +24693,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24712,7 +24701,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24720,7 +24709,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24728,7 +24717,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24736,7 +24725,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24744,7 +24733,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24752,7 +24741,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24760,7 +24749,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24768,7 +24757,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24776,7 +24765,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24784,7 +24773,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24792,7 +24781,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24800,7 +24789,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24808,7 +24797,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24816,7 +24805,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24824,7 +24813,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24832,7 +24821,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24840,7 +24829,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24848,7 +24837,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24856,7 +24845,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24864,7 +24853,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24872,7 +24861,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24880,7 +24869,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24888,7 +24877,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24896,7 +24885,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24904,7 +24893,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24912,7 +24901,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24920,7 +24909,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24928,7 +24917,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24936,7 +24925,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24944,7 +24933,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24952,7 +24941,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24960,7 +24949,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24968,7 +24957,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24976,7 +24965,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24984,7 +24973,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24992,7 +24981,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25000,7 +24989,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25008,7 +24997,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25016,7 +25005,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25024,7 +25013,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25032,7 +25021,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25040,7 +25029,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25048,7 +25037,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25056,7 +25045,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25064,7 +25053,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25072,7 +25061,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25080,7 +25069,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25088,7 +25077,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25096,7 +25085,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25104,7 +25093,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="55" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25112,7 +25101,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25120,7 +25109,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25128,7 +25117,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25136,7 +25125,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25144,7 +25133,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25152,7 +25141,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="55" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25160,7 +25149,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25168,7 +25157,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25176,7 +25165,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25184,7 +25173,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25192,7 +25181,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25200,7 +25189,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25208,7 +25197,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
